--- a/outputs/SORs/SOR Testing_Climate Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_Climate Solutions.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -621,7 +621,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -664,7 +666,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -707,7 +711,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -756,7 +762,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -890,7 +898,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -941,7 +951,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1089,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1128,7 +1142,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1179,7 +1195,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1254,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1378,7 +1398,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1427,7 +1449,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1500,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1555,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1667,7 +1695,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1720,7 +1750,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1773,7 +1805,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1858,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1960,7 +1996,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2009,7 +2047,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2143,7 +2183,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2230,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2318,7 +2362,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2371,7 +2417,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2509,7 +2557,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2602,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="17" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2732,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2729,7 +2783,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2778,7 +2834,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2819,7 +2877,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2945,7 +3005,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2998,7 +3060,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3051,7 +3115,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3102,7 +3168,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3238,7 +3306,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3289,7 +3359,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3425,7 +3497,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3468,7 +3542,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3596,7 +3672,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3715,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3843,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3804,7 +3886,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3845,7 +3929,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3894,7 +3980,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4028,7 +4116,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4079,7 +4169,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4215,7 +4307,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4258,7 +4352,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_Climate Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_Climate Solutions.xlsx
@@ -712,7 +712,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1255,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1501,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1556,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1806,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1859,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2184,7 +2184,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2231,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2363,7 +2363,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2418,7 +2418,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2558,7 +2558,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2603,7 +2603,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2835,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2878,7 +2878,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -3116,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -3169,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -3930,7 +3930,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -3981,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_Climate Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_Climate Solutions.xlsx
@@ -621,9 +621,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -666,9 +664,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -711,9 +707,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -762,9 +756,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -898,9 +890,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -951,9 +941,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1089,9 +1077,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1142,9 +1128,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1195,9 +1179,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1254,9 +1236,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1398,9 +1378,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1449,9 +1427,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1500,9 +1476,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="12"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1555,9 +1529,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1695,9 +1667,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1750,9 +1720,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1805,9 +1773,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1858,9 +1824,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1996,9 +1960,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2047,9 +2009,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2183,9 +2143,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2230,9 +2188,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2362,9 +2318,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2417,9 +2371,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="16" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2557,9 +2509,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2602,9 +2552,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2732,9 +2680,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2783,9 +2729,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2834,9 +2778,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2877,9 +2819,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3005,9 +2945,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3060,9 +2998,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3115,9 +3051,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3168,9 +3102,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3306,9 +3238,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3359,9 +3289,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3497,9 +3425,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3542,9 +3468,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3672,9 +3596,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3715,9 +3637,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3843,9 +3763,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3886,9 +3804,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3929,9 +3845,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3980,9 +3894,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4116,9 +4028,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4169,9 +4079,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4307,9 +4215,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4352,9 +4258,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
